--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N2">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P2">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q2">
-        <v>3.836439350318667</v>
+        <v>19.765657606898</v>
       </c>
       <c r="R2">
-        <v>34.52795415286801</v>
+        <v>177.890918462082</v>
       </c>
       <c r="S2">
-        <v>0.004965991596420546</v>
+        <v>0.01035769494712173</v>
       </c>
       <c r="T2">
-        <v>0.004965991596420546</v>
+        <v>0.01035769494712173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N3">
         <v>0.161336</v>
       </c>
       <c r="O3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P3">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q3">
-        <v>1.073195384103111</v>
+        <v>1.571597961285333</v>
       </c>
       <c r="R3">
-        <v>9.658758456927998</v>
+        <v>14.144381651568</v>
       </c>
       <c r="S3">
-        <v>0.001389173338119026</v>
+        <v>0.0008235563210824325</v>
       </c>
       <c r="T3">
-        <v>0.001389173338119026</v>
+        <v>0.0008235563210824324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N4">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O4">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P4">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q4">
-        <v>4.157960268716445</v>
+        <v>10.92099659317333</v>
       </c>
       <c r="R4">
-        <v>37.421642418448</v>
+        <v>98.28896933855999</v>
       </c>
       <c r="S4">
-        <v>0.005382177031152924</v>
+        <v>0.00572287315101364</v>
       </c>
       <c r="T4">
-        <v>0.005382177031152925</v>
+        <v>0.005722873151013639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I5">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J5">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N5">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P5">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q5">
-        <v>314.7743457258034</v>
+        <v>1107.438455726963</v>
       </c>
       <c r="R5">
-        <v>2832.96911153223</v>
+        <v>9966.94610154267</v>
       </c>
       <c r="S5">
-        <v>0.4074524872948332</v>
+        <v>0.5803252249562584</v>
       </c>
       <c r="T5">
-        <v>0.4074524872948333</v>
+        <v>0.5803252249562583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N6">
         <v>0.161336</v>
       </c>
       <c r="O6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P6">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q6">
-        <v>88.05414188000887</v>
+        <v>88.05414188000888</v>
       </c>
       <c r="R6">
-        <v>792.4872769200799</v>
+        <v>792.48727692008</v>
       </c>
       <c r="S6">
-        <v>0.1139796797699473</v>
+        <v>0.04614255485764444</v>
       </c>
       <c r="T6">
-        <v>0.1139796797699474</v>
+        <v>0.04614255485764443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N7">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O7">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P7">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q7">
-        <v>341.1546758924756</v>
+        <v>611.8861230259555</v>
       </c>
       <c r="R7">
-        <v>3070.39208303228</v>
+        <v>5506.975107233599</v>
       </c>
       <c r="S7">
-        <v>0.4415999052404895</v>
+        <v>0.3206435085907816</v>
       </c>
       <c r="T7">
-        <v>0.4415999052404896</v>
+        <v>0.3206435085907815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H8">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I8">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J8">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N8">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P8">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q8">
-        <v>4.882328522463334</v>
+        <v>25.29065096864667</v>
       </c>
       <c r="R8">
-        <v>43.94095670217001</v>
+        <v>227.61585871782</v>
       </c>
       <c r="S8">
-        <v>0.006319819029982408</v>
+        <v>0.0132529285368149</v>
       </c>
       <c r="T8">
-        <v>0.006319819029982408</v>
+        <v>0.0132529285368149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H9">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I9">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J9">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N9">
         <v>0.161336</v>
       </c>
       <c r="O9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P9">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q9">
-        <v>1.365769651368889</v>
+        <v>2.010898715964445</v>
       </c>
       <c r="R9">
-        <v>12.29192686232</v>
+        <v>18.09808844368</v>
       </c>
       <c r="S9">
-        <v>0.001767889439143812</v>
+        <v>0.001053760815033529</v>
       </c>
       <c r="T9">
-        <v>0.001767889439143813</v>
+        <v>0.001053760815033529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N10">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O10">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P10">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q10">
-        <v>5.291502396235557</v>
+        <v>13.97368701617778</v>
       </c>
       <c r="R10">
-        <v>47.62352156612001</v>
+        <v>125.7631831456</v>
       </c>
       <c r="S10">
-        <v>0.006849464837743949</v>
+        <v>0.007322558666078185</v>
       </c>
       <c r="T10">
-        <v>0.006849464837743951</v>
+        <v>0.007322558666078182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H11">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I11">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J11">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.192247</v>
+        <v>0.6763629999999999</v>
       </c>
       <c r="N11">
-        <v>0.5767410000000001</v>
+        <v>2.029089</v>
       </c>
       <c r="O11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="P11">
-        <v>0.4230933724974379</v>
+        <v>0.6127318215515719</v>
       </c>
       <c r="Q11">
-        <v>3.364480014375334</v>
+        <v>16.785413523621</v>
       </c>
       <c r="R11">
-        <v>30.280320129378</v>
+        <v>151.068721712589</v>
       </c>
       <c r="S11">
-        <v>0.00435507457620175</v>
+        <v>0.008795973111376948</v>
       </c>
       <c r="T11">
-        <v>0.004355074576201751</v>
+        <v>0.008795973111376946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H12">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I12">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J12">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05377866666666666</v>
+        <v>0.05377866666666667</v>
       </c>
       <c r="N12">
         <v>0.161336</v>
       </c>
       <c r="O12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984812</v>
       </c>
       <c r="P12">
-        <v>0.118355019575939</v>
+        <v>0.04871925339984811</v>
       </c>
       <c r="Q12">
-        <v>0.941170729320889</v>
+        <v>1.334634151704</v>
       </c>
       <c r="R12">
-        <v>8.470536563888</v>
+        <v>12.011707365336</v>
       </c>
       <c r="S12">
-        <v>0.001218277028728815</v>
+        <v>0.0006993814060877129</v>
       </c>
       <c r="T12">
-        <v>0.001218277028728815</v>
+        <v>0.0006993814060877127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H13">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I13">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J13">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2083586666666667</v>
+        <v>0.3737066666666666</v>
       </c>
       <c r="N13">
-        <v>0.6250760000000001</v>
+        <v>1.12112</v>
       </c>
       <c r="O13">
-        <v>0.458551607926623</v>
+        <v>0.3385489250485801</v>
       </c>
       <c r="P13">
-        <v>0.4585516079266231</v>
+        <v>0.33854892504858</v>
       </c>
       <c r="Q13">
-        <v>3.646447381867556</v>
+        <v>9.274340755679999</v>
       </c>
       <c r="R13">
-        <v>32.818026436808</v>
+        <v>83.46906680112001</v>
       </c>
       <c r="S13">
-        <v>0.004720060817236653</v>
+        <v>0.004859984640706703</v>
       </c>
       <c r="T13">
-        <v>0.004720060817236655</v>
+        <v>0.004859984640706702</v>
       </c>
     </row>
   </sheetData>
